--- a/static/saved_dataframes/tabelle_entita_e_relazionali/is_Commento_entry_of.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/is_Commento_entry_of.xlsx
@@ -957,7 +957,7 @@
         <v>12000001</v>
       </c>
       <c r="C35" t="n">
-        <v>14000040</v>
+        <v>14000039</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
@@ -974,7 +974,7 @@
         <v>12000001</v>
       </c>
       <c r="C36" t="n">
-        <v>14000041</v>
+        <v>14000040</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
@@ -991,7 +991,7 @@
         <v>12000001</v>
       </c>
       <c r="C37" t="n">
-        <v>14000044</v>
+        <v>14000043</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
@@ -1008,7 +1008,7 @@
         <v>12000001</v>
       </c>
       <c r="C38" t="n">
-        <v>14000045</v>
+        <v>14000044</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
@@ -1025,7 +1025,7 @@
         <v>12000001</v>
       </c>
       <c r="C39" t="n">
-        <v>14000046</v>
+        <v>14000045</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
@@ -1042,7 +1042,7 @@
         <v>12000001</v>
       </c>
       <c r="C40" t="n">
-        <v>14000047</v>
+        <v>14000046</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
@@ -1059,7 +1059,7 @@
         <v>12000001</v>
       </c>
       <c r="C41" t="n">
-        <v>14000052</v>
+        <v>14000051</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -1076,7 +1076,7 @@
         <v>12000001</v>
       </c>
       <c r="C42" t="n">
-        <v>14000055</v>
+        <v>14000054</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
@@ -1093,7 +1093,7 @@
         <v>12000001</v>
       </c>
       <c r="C43" t="n">
-        <v>14000056</v>
+        <v>14000055</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
@@ -1110,7 +1110,7 @@
         <v>12000001</v>
       </c>
       <c r="C44" t="n">
-        <v>14000057</v>
+        <v>14000056</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
@@ -1127,7 +1127,7 @@
         <v>12000001</v>
       </c>
       <c r="C45" t="n">
-        <v>14000058</v>
+        <v>14000057</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
@@ -1144,7 +1144,7 @@
         <v>12000001</v>
       </c>
       <c r="C46" t="n">
-        <v>14000059</v>
+        <v>14000058</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
@@ -1161,7 +1161,7 @@
         <v>12000001</v>
       </c>
       <c r="C47" t="n">
-        <v>14000060</v>
+        <v>14000059</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
@@ -1178,7 +1178,7 @@
         <v>12000001</v>
       </c>
       <c r="C48" t="n">
-        <v>14000061</v>
+        <v>14000060</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
@@ -1195,7 +1195,7 @@
         <v>12000001</v>
       </c>
       <c r="C49" t="n">
-        <v>14000062</v>
+        <v>14000061</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
@@ -1212,7 +1212,7 @@
         <v>12000001</v>
       </c>
       <c r="C50" t="n">
-        <v>14000063</v>
+        <v>14000062</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>12000001</v>
       </c>
       <c r="C51" t="n">
-        <v>14000064</v>
+        <v>14000063</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
@@ -1246,7 +1246,7 @@
         <v>12000001</v>
       </c>
       <c r="C52" t="n">
-        <v>14000065</v>
+        <v>14000064</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -1263,7 +1263,7 @@
         <v>12000001</v>
       </c>
       <c r="C53" t="n">
-        <v>14000066</v>
+        <v>14000065</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
@@ -1280,7 +1280,7 @@
         <v>12000001</v>
       </c>
       <c r="C54" t="n">
-        <v>14000069</v>
+        <v>14000068</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
@@ -1297,7 +1297,7 @@
         <v>12000001</v>
       </c>
       <c r="C55" t="n">
-        <v>14000072</v>
+        <v>14000071</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
@@ -1314,7 +1314,7 @@
         <v>12000001</v>
       </c>
       <c r="C56" t="n">
-        <v>14000074</v>
+        <v>14000073</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
@@ -1331,7 +1331,7 @@
         <v>12000001</v>
       </c>
       <c r="C57" t="n">
-        <v>14000077</v>
+        <v>14000076</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
@@ -1348,7 +1348,7 @@
         <v>12000002</v>
       </c>
       <c r="C58" t="n">
-        <v>14000075</v>
+        <v>14000074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1366,10 +1366,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12000042</v>
+        <v>12000041</v>
       </c>
       <c r="C59" t="n">
-        <v>14000042</v>
+        <v>14000041</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1387,10 +1387,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12000048</v>
+        <v>12000047</v>
       </c>
       <c r="C60" t="n">
-        <v>14000048</v>
+        <v>14000047</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12000050</v>
+        <v>12000049</v>
       </c>
       <c r="C61" t="n">
-        <v>14000050</v>
+        <v>14000049</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12000053</v>
+        <v>12000052</v>
       </c>
       <c r="C62" t="n">
-        <v>14000053</v>
+        <v>14000052</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1450,10 +1450,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12000067</v>
+        <v>12000066</v>
       </c>
       <c r="C63" t="n">
-        <v>14000067</v>
+        <v>14000066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1472,10 +1472,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12000070</v>
+        <v>12000069</v>
       </c>
       <c r="C64" t="n">
-        <v>14000070</v>
+        <v>14000069</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1493,10 +1493,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12000076</v>
+        <v>12000075</v>
       </c>
       <c r="C65" t="n">
-        <v>14000076</v>
+        <v>14000075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>

--- a/static/saved_dataframes/tabelle_entita_e_relazionali/is_Commento_entry_of.xlsx
+++ b/static/saved_dataframes/tabelle_entita_e_relazionali/is_Commento_entry_of.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -945,7 +945,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ITCH00000</t>
+          <t>ITCH00001</t>
         </is>
       </c>
     </row>
@@ -957,12 +957,12 @@
         <v>12000001</v>
       </c>
       <c r="C35" t="n">
-        <v>14000039</v>
+        <v>14000035</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ITCH00001</t>
+          <t>ITCH00002</t>
         </is>
       </c>
     </row>
@@ -974,12 +974,12 @@
         <v>12000001</v>
       </c>
       <c r="C36" t="n">
-        <v>14000040</v>
+        <v>14000038</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ITCH00002</t>
+          <t>ITCH00004</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
         <v>12000001</v>
       </c>
       <c r="C37" t="n">
-        <v>14000043</v>
+        <v>14000039</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ITCH00004</t>
+          <t>ITCH00005</t>
         </is>
       </c>
     </row>
@@ -1008,12 +1008,12 @@
         <v>12000001</v>
       </c>
       <c r="C38" t="n">
-        <v>14000044</v>
+        <v>14000040</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ITCH00005</t>
+          <t>ITCH00006</t>
         </is>
       </c>
     </row>
@@ -1025,12 +1025,12 @@
         <v>12000001</v>
       </c>
       <c r="C39" t="n">
-        <v>14000045</v>
+        <v>14000041</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ITCH00006</t>
+          <t>ITCH00007</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ITCH00007</t>
+          <t>ITCH00011</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
         <v>12000001</v>
       </c>
       <c r="C41" t="n">
-        <v>14000051</v>
+        <v>14000049</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ITCH00011</t>
+          <t>ITCH00013</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
         <v>12000001</v>
       </c>
       <c r="C42" t="n">
-        <v>14000054</v>
+        <v>14000050</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ITCH00013</t>
+          <t>ITCH00014</t>
         </is>
       </c>
     </row>
@@ -1093,12 +1093,12 @@
         <v>12000001</v>
       </c>
       <c r="C43" t="n">
-        <v>14000055</v>
+        <v>14000051</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ITCH00014</t>
+          <t>ITCH00015</t>
         </is>
       </c>
     </row>
@@ -1110,12 +1110,12 @@
         <v>12000001</v>
       </c>
       <c r="C44" t="n">
-        <v>14000056</v>
+        <v>14000052</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ITCH00015</t>
+          <t>ITCH00016</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1127,12 @@
         <v>12000001</v>
       </c>
       <c r="C45" t="n">
-        <v>14000057</v>
+        <v>14000053</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ITCH00016</t>
+          <t>ITCH00017</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1144,12 @@
         <v>12000001</v>
       </c>
       <c r="C46" t="n">
-        <v>14000058</v>
+        <v>14000054</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ITCH00017</t>
+          <t>ITCH00018</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
         <v>12000001</v>
       </c>
       <c r="C47" t="n">
-        <v>14000059</v>
+        <v>14000055</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ITCH00018</t>
+          <t>ITCH00019</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
         <v>12000001</v>
       </c>
       <c r="C48" t="n">
-        <v>14000060</v>
+        <v>14000056</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ITCH00019</t>
+          <t>ITCH00020</t>
         </is>
       </c>
     </row>
@@ -1195,12 +1195,12 @@
         <v>12000001</v>
       </c>
       <c r="C49" t="n">
-        <v>14000061</v>
+        <v>14000057</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ITCH00020</t>
+          <t>ITCH00021</t>
         </is>
       </c>
     </row>
@@ -1212,12 +1212,12 @@
         <v>12000001</v>
       </c>
       <c r="C50" t="n">
-        <v>14000062</v>
+        <v>14000058</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ITCH00021</t>
+          <t>ITCH00022</t>
         </is>
       </c>
     </row>
@@ -1229,12 +1229,12 @@
         <v>12000001</v>
       </c>
       <c r="C51" t="n">
-        <v>14000063</v>
+        <v>14000059</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ITCH00022</t>
+          <t>ITCH00023</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
         <v>12000001</v>
       </c>
       <c r="C52" t="n">
-        <v>14000064</v>
+        <v>14000060</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ITCH00023</t>
+          <t>ITCH00024</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
         <v>12000001</v>
       </c>
       <c r="C53" t="n">
-        <v>14000065</v>
+        <v>14000063</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ITCH00024</t>
+          <t>ITCH00026</t>
         </is>
       </c>
     </row>
@@ -1280,12 +1280,12 @@
         <v>12000001</v>
       </c>
       <c r="C54" t="n">
-        <v>14000068</v>
+        <v>14000066</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ITCH00026</t>
+          <t>ITCH00028</t>
         </is>
       </c>
     </row>
@@ -1297,12 +1297,12 @@
         <v>12000001</v>
       </c>
       <c r="C55" t="n">
-        <v>14000071</v>
+        <v>14000068</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ITCH00028</t>
+          <t>ITCH00029</t>
         </is>
       </c>
     </row>
@@ -1314,12 +1314,12 @@
         <v>12000001</v>
       </c>
       <c r="C56" t="n">
-        <v>14000073</v>
+        <v>14000071</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ITCH00029</t>
+          <t>ITCH00032</t>
         </is>
       </c>
     </row>
@@ -1331,12 +1331,12 @@
         <v>12000001</v>
       </c>
       <c r="C57" t="n">
-        <v>14000076</v>
+        <v>14000072</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ITCH00040</t>
+          <t>ITCH00033</t>
         </is>
       </c>
     </row>
@@ -1345,19 +1345,15 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12000002</v>
+        <v>12000001</v>
       </c>
       <c r="C58" t="n">
-        <v>14000074</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Definizione italiana, oggetto svizzero</t>
-        </is>
-      </c>
+        <v>14000073</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ITCH00030</t>
+          <t>ITCH00034</t>
         </is>
       </c>
     </row>
@@ -1366,19 +1362,15 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12000041</v>
+        <v>12000001</v>
       </c>
       <c r="C59" t="n">
-        <v>14000041</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Definizioni riorganizzate da Tommaso Sansone, Politecnico di Milano.</t>
-        </is>
-      </c>
+        <v>14000074</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ITCH00003</t>
+          <t>ITCH00035</t>
         </is>
       </c>
     </row>
@@ -1387,19 +1379,15 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12000047</v>
+        <v>12000001</v>
       </c>
       <c r="C60" t="n">
-        <v>14000047</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Per il lato italiano, definizione tratta dall'art 10 del codice di protezione civile del 2-1-2018, rielaborata da Tommaso Sansone.</t>
-        </is>
-      </c>
+        <v>14000075</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ITCH00009</t>
+          <t>ITCH00036</t>
         </is>
       </c>
     </row>
@@ -1408,19 +1396,15 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12000049</v>
+        <v>12000001</v>
       </c>
       <c r="C61" t="n">
-        <v>14000049</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>strutture operative in italia e organizzazioni partner in svizzera hanno la stessa connotazione all'interno di un sistema di protezione della popolazione.</t>
-        </is>
-      </c>
+        <v>14000076</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ITCH00010</t>
+          <t>ITCH00040</t>
         </is>
       </c>
     </row>
@@ -1429,19 +1413,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12000052</v>
+        <v>12000002</v>
       </c>
       <c r="C62" t="n">
-        <v>14000052</v>
+        <v>14000069</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Per il lato italiano, definizione rielaborata da Tommaso Sansone a partire dall'art 7 del decreto di protezione civile 2-1-2018</t>
+          <t>Definizione italiana, oggetto svizzero</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ITCH00012</t>
+          <t>ITCH00030</t>
         </is>
       </c>
     </row>
@@ -1450,20 +1434,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12000066</v>
+        <v>12000036</v>
       </c>
       <c r="C63" t="n">
-        <v>14000066</v>
+        <v>14000036</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Il significato italiano di protezione civile coincide a livello di strutture con io significato svizzero di protezione della popolazione.
-Definizioni riorganizzate da Tommaso Sansone, Politecnico di Milano.</t>
+          <t>Definizioni riorganizzate da Tommaso Sansone, Politecnico di Milano.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ITCH00025</t>
+          <t>ITCH00003</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1455,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12000069</v>
+        <v>12000042</v>
       </c>
       <c r="C64" t="n">
-        <v>14000069</v>
+        <v>14000042</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>definizione lato italiano, oggetto lato svizzero</t>
+          <t>Per il lato italiano, definizione tratta dall'art 10 del codice di protezione civile del 2-1-2018, rielaborata da Tommaso Sansone.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ITCH00027</t>
+          <t>ITCH00009</t>
         </is>
       </c>
     </row>
@@ -1493,17 +1476,102 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12000075</v>
+        <v>12000044</v>
       </c>
       <c r="C65" t="n">
-        <v>14000075</v>
+        <v>14000044</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>strutture operative in italia e organizzazioni partner in svizzera hanno la stessa connotazione all'interno di un sistema di protezione della popolazione.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ITCH00010</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>12000047</v>
+      </c>
+      <c r="C66" t="n">
+        <v>14000047</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Per il lato italiano, definizione rielaborata da Tommaso Sansone a partire dall'art 7 del decreto di protezione civile 2-1-2018</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>ITCH00012</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>12000061</v>
+      </c>
+      <c r="C67" t="n">
+        <v>14000061</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Il significato italiano di protezione civile coincide a livello di strutture con io significato svizzero di protezione della popolazione.
+Definizioni riorganizzate da Tommaso Sansone, Politecnico di Milano.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ITCH00025</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>12000064</v>
+      </c>
+      <c r="C68" t="n">
+        <v>14000064</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>definizione lato italiano, oggetto lato svizzero</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ITCH00027</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12000070</v>
+      </c>
+      <c r="C69" t="n">
+        <v>14000070</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>definizione italiana, oggetto svizzero</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>ITCH00031</t>
         </is>
